--- a/LME/parser_beta/data/investing_com/IMOEX.xlsx
+++ b/LME/parser_beta/data/investing_com/IMOEX.xlsx
@@ -682,7 +682,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>45260</v>
